--- a/biology/Zoologie/Iolana/Iolana.xlsx
+++ b/biology/Zoologie/Iolana/Iolana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iolana est un genre paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Iolana a été décrit par l'entomologiste britannique George Thomas Bethune-Baker en 1914. Son espèce type est Lycaena iolas Ochsenheimer, 1816[1].
-Certains auteurs mettent Iolana en synonymie avec Glaucopsyche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Iolana a été décrit par l'entomologiste britannique George Thomas Bethune-Baker en 1914. Son espèce type est Lycaena iolas Ochsenheimer, 1816.
+Certains auteurs mettent Iolana en synonymie avec Glaucopsyche.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre compte entre trois et neuf espèces en fonction des sources ; Funet reconnaît les suivantes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre compte entre trois et neuf espèces en fonction des sources ; Funet reconnaît les suivantes :
 Iolana iolas Ochsenheimer, 1816 — l'Azuré du baguenaudier — présent dans le Sud de l'Europe
 Iolana debilitata (Schultz, 1905) — l'Azuré d'Oranie — présent au Maghreb et dans la péninsule Ibérique — parfois considéré comme une sous-espèce de Iolana iolas.
 Iolana andreasi (Sheljuzhko, 1919) — présent en Iran et au Turkménistan.
